--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/20/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.648099999999989</v>
+        <v>5.596199999999991</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.877600000000004</v>
+        <v>4.805400000000002</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.2378</v>
+        <v>-11.0346</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -550,10 +550,10 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.059100000000002</v>
+        <v>6.131400000000002</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.304</v>
+        <v>-11.0925</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -567,10 +567,10 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.168499999999998</v>
+        <v>5.187099999999998</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.90599999999999</v>
+        <v>-10.64609999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.12440000000004</v>
+        <v>-22.17160000000003</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.70120000000001</v>
+        <v>-22.6291</v>
       </c>
       <c r="B12" t="n">
-        <v>5.629100000000003</v>
+        <v>5.739700000000004</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>9.258100000000004</v>
+        <v>9.447800000000004</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.52860000000002</v>
+        <v>-21.53550000000002</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -757,7 +757,7 @@
         <v>5.44</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.9161</v>
+        <v>-12.89579999999999</v>
       </c>
       <c r="D19" t="n">
         <v>-8.470000000000001</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.4462</v>
+        <v>-12.6816</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.6322</v>
+        <v>5.296100000000004</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -842,7 +842,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.712</v>
+        <v>-11.4735</v>
       </c>
       <c r="D24" t="n">
         <v>-9.24</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.84929999999999</v>
+        <v>-10.72779999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
